--- a/Week 2/Weekly Report 2.xlsx
+++ b/Week 2/Weekly Report 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3660" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -393,12 +393,15 @@
   <si>
     <t>Temporarily only plan to start coding next week</t>
   </si>
+  <si>
+    <t>VI. Tranning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,6 +581,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -631,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1308,8 +1322,8 @@
   <dimension ref="A1:EB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1774,9 @@
       <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="40" t="s">
+        <v>53</v>
+      </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>

--- a/Week 2/Weekly Report 2.xlsx
+++ b/Week 2/Weekly Report 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -396,12 +396,45 @@
   <si>
     <t>VI. Tranning</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Memtor</t>
+  </si>
+  <si>
+    <t>Recording Link</t>
+  </si>
+  <si>
+    <t>Skills Training</t>
+  </si>
+  <si>
+    <t>14h30 - 16h (15/09/2021)</t>
+  </si>
+  <si>
+    <t>FrontEnd_Boostrap 5.0.2</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>21h-22h30(17/09/2021)</t>
+  </si>
+  <si>
+    <t>Systax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,8 +626,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,8 +674,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -637,12 +704,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,8 +868,24 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1319,11 +1463,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB39"/>
+  <dimension ref="A1:EA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:G44"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,11 +1475,13 @@
     <col min="1" max="1" width="5.75" style="22" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="22" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="7.75" style="22"/>
+    <col min="4" max="4" width="62.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="7.75" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
@@ -1343,10 +1489,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:132" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -1478,14 +1624,13 @@
       <c r="DY3" s="28"/>
       <c r="DZ3" s="28"/>
       <c r="EA3" s="28"/>
-      <c r="EB3" s="28"/>
-    </row>
-    <row r="4" spans="1:132" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
@@ -1499,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:132" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:131" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -1513,7 +1658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:132" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:131" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>2</v>
       </c>
@@ -1527,7 +1672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>3</v>
       </c>
@@ -1541,12 +1686,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:132" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:131" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>5</v>
       </c>
@@ -1560,7 +1705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>1</v>
       </c>
@@ -1574,7 +1719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:132" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:131" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>2</v>
       </c>
@@ -1588,7 +1733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:132" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:131" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>3</v>
       </c>
@@ -1602,7 +1747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:132" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:131" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>4</v>
       </c>
@@ -1616,7 +1761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:131" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>5</v>
       </c>
@@ -1745,7 +1890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>1</v>
       </c>
@@ -1755,25 +1900,25 @@
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>53</v>
       </c>
@@ -1781,17 +1926,65 @@
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+    <row r="38" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44">
+        <v>1</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44">
+        <v>4</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1799,8 +1992,12 @@
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F39" r:id="rId1" display="https://drive.google.com/file/d/1PlaEs3T6klosTvb5vdVgfeqM70eh7qKy/view"/>
+    <hyperlink ref="F40" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Week 2/Weekly Report 2.xlsx
+++ b/Week 2/Weekly Report 2.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -429,12 +429,27 @@
   <si>
     <t>Systax</t>
   </si>
+  <si>
+    <t>Skills Trainning</t>
+  </si>
+  <si>
+    <t>21h-22h30(16/09/2021)</t>
+  </si>
+  <si>
+    <t>JSP + servlet</t>
+  </si>
+  <si>
+    <t>Trần Văn Đức</t>
+  </si>
+  <si>
+    <t>Link Record</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,6 +668,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -681,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -764,13 +792,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +922,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1463,11 +1516,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EA40"/>
+  <dimension ref="A1:EA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,23 +2019,43 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44">
-        <v>4</v>
-      </c>
-      <c r="B40" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44">
+        <v>3</v>
+      </c>
+      <c r="B41" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C41" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D41" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F41" s="48" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1994,10 +2067,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F39" r:id="rId1" display="https://drive.google.com/file/d/1PlaEs3T6klosTvb5vdVgfeqM70eh7qKy/view"/>
-    <hyperlink ref="F40" r:id="rId2"/>
+    <hyperlink ref="F41" r:id="rId2"/>
+    <hyperlink ref="F40" r:id="rId3" display="https://drive.google.com/drive/u/1/folders/12d3KOOVsw-6uAeHtrfzf4oS2L5zSnjpW"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>